--- a/sources/Czech_data.xlsx
+++ b/sources/Czech_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="885">
   <si>
     <t>language_no</t>
   </si>
@@ -3540,7 +3540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
@@ -3564,7 +3564,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3847,8 +3846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="E122" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H127" sqref="H127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4006,18 +4005,18 @@
         <v>540</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J3" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K3" s="5" t="s">
         <v>541</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>542</v>
-      </c>
+      <c r="M3" s="5"/>
       <c r="N3" s="5" t="s">
         <v>758</v>
       </c>
@@ -4025,7 +4024,9 @@
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="5"/>
+      <c r="S3" s="5" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="4" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
@@ -4064,9 +4065,7 @@
       <c r="L4" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M4" s="5"/>
       <c r="N4" s="5" t="s">
         <v>759</v>
       </c>
@@ -4074,7 +4073,9 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="5"/>
+      <c r="S4" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="5" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
@@ -4113,9 +4114,7 @@
       <c r="L5" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M5" s="5" t="s">
-        <v>550</v>
-      </c>
+      <c r="M5" s="5"/>
       <c r="N5" s="5" t="s">
         <v>760</v>
       </c>
@@ -4123,7 +4122,9 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="5"/>
+      <c r="S5" s="5" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="6" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
@@ -4153,14 +4154,14 @@
       <c r="I6" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>552</v>
+      </c>
       <c r="K6" s="5" t="s">
         <v>552</v>
       </c>
       <c r="L6" s="5"/>
-      <c r="M6" s="5" t="s">
-        <v>553</v>
-      </c>
+      <c r="M6" s="5"/>
       <c r="N6" s="5" t="s">
         <v>761</v>
       </c>
@@ -4168,7 +4169,9 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
+      <c r="S6" s="5" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="7" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
@@ -4207,9 +4210,7 @@
       <c r="L7" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M7" s="5"/>
       <c r="N7" s="5" t="s">
         <v>762</v>
       </c>
@@ -4217,7 +4218,9 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="9"/>
+      <c r="S7" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="8" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
@@ -4256,9 +4259,7 @@
       <c r="L8" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="M8" s="5" t="s">
-        <v>558</v>
-      </c>
+      <c r="M8" s="5"/>
       <c r="N8" s="5" t="s">
         <v>763</v>
       </c>
@@ -4266,7 +4267,9 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="5"/>
+      <c r="S8" s="5" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="9" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
@@ -4294,9 +4297,11 @@
         <v>559</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J9" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K9" s="5" t="s">
         <v>541</v>
       </c>
@@ -4339,9 +4344,11 @@
         <v>560</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J10" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K10" s="5" t="s">
         <v>541</v>
       </c>
@@ -4384,9 +4391,11 @@
         <v>561</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J11" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K11" s="5" t="s">
         <v>541</v>
       </c>
@@ -4440,9 +4449,7 @@
       <c r="L12" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="M12" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M12" s="5"/>
       <c r="N12" s="5" t="s">
         <v>767</v>
       </c>
@@ -4450,7 +4457,9 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="5"/>
+      <c r="S12" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="13" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
@@ -4544,7 +4553,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="9"/>
+      <c r="S14" s="5"/>
     </row>
     <row r="15" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
@@ -4591,7 +4600,7 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="9"/>
+      <c r="S15" s="5"/>
     </row>
     <row r="16" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
@@ -4619,18 +4628,18 @@
         <v>574</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J16" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K16" s="5" t="s">
         <v>541</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>575</v>
-      </c>
+      <c r="M16" s="5"/>
       <c r="N16" s="5" t="s">
         <v>771</v>
       </c>
@@ -4638,7 +4647,9 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
+      <c r="S16" s="5" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="17" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
@@ -4666,9 +4677,11 @@
         <v>576</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J17" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K17" s="5" t="s">
         <v>541</v>
       </c>
@@ -4722,9 +4735,7 @@
       <c r="L18" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="M18" s="5" t="s">
-        <v>578</v>
-      </c>
+      <c r="M18" s="5"/>
       <c r="N18" s="5" t="s">
         <v>773</v>
       </c>
@@ -4732,7 +4743,9 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="5"/>
+      <c r="S18" s="5" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="19" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
@@ -4760,9 +4773,11 @@
         <v>579</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J19" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K19" s="5" t="s">
         <v>541</v>
       </c>
@@ -4805,9 +4820,11 @@
         <v>580</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J20" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K20" s="5" t="s">
         <v>541</v>
       </c>
@@ -4822,7 +4839,7 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="9"/>
+      <c r="S20" s="5"/>
     </row>
     <row r="21" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
@@ -4850,9 +4867,11 @@
         <v>581</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J21" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K21" s="5" t="s">
         <v>541</v>
       </c>
@@ -4906,9 +4925,7 @@
       <c r="L22" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="M22" s="5" t="s">
-        <v>585</v>
-      </c>
+      <c r="M22" s="5"/>
       <c r="N22" s="5" t="s">
         <v>777</v>
       </c>
@@ -4916,7 +4933,9 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="9"/>
+      <c r="S22" s="5" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="23" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
@@ -4955,9 +4974,7 @@
       <c r="L23" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M23" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M23" s="5"/>
       <c r="N23" s="5" t="s">
         <v>778</v>
       </c>
@@ -4965,7 +4982,9 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="5"/>
+      <c r="S23" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="24" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
@@ -5004,9 +5023,7 @@
       <c r="L24" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="M24" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M24" s="5"/>
       <c r="N24" s="5" t="s">
         <v>779</v>
       </c>
@@ -5014,7 +5031,9 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="9"/>
+      <c r="S24" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="25" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
@@ -5053,9 +5072,7 @@
       <c r="L25" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="M25" s="5" t="s">
-        <v>589</v>
-      </c>
+      <c r="M25" s="5"/>
       <c r="N25" s="5" t="s">
         <v>780</v>
       </c>
@@ -5063,7 +5080,9 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="5"/>
+      <c r="S25" s="5" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="26" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
@@ -5138,9 +5157,11 @@
         <v>593</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J27" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K27" s="5" t="s">
         <v>541</v>
       </c>
@@ -5183,9 +5204,11 @@
         <v>594</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J28" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K28" s="5" t="s">
         <v>541</v>
       </c>
@@ -5294,7 +5317,7 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="9"/>
+      <c r="S30" s="5"/>
     </row>
     <row r="31" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
@@ -5333,9 +5356,7 @@
       <c r="L31" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="M31" s="5" t="s">
-        <v>600</v>
-      </c>
+      <c r="M31" s="5"/>
       <c r="N31" s="5" t="s">
         <v>786</v>
       </c>
@@ -5343,7 +5364,9 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
-      <c r="S31" s="5"/>
+      <c r="S31" s="5" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="32" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
@@ -5429,9 +5452,7 @@
       <c r="L33" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="M33" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M33" s="5"/>
       <c r="N33" s="5" t="s">
         <v>788</v>
       </c>
@@ -5439,7 +5460,9 @@
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
-      <c r="S33" s="5"/>
+      <c r="S33" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="34" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
@@ -5467,9 +5490,11 @@
         <v>603</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J34" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K34" s="5" t="s">
         <v>541</v>
       </c>
@@ -5570,9 +5595,7 @@
       <c r="L36" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="M36" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M36" s="5"/>
       <c r="N36" s="5" t="s">
         <v>791</v>
       </c>
@@ -5580,7 +5603,9 @@
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
-      <c r="S36" s="5"/>
+      <c r="S36" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="37" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
@@ -5608,9 +5633,11 @@
         <v>606</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J37" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K37" s="5" t="s">
         <v>541</v>
       </c>
@@ -5664,9 +5691,7 @@
       <c r="L38" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="M38" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M38" s="5"/>
       <c r="N38" s="5" t="s">
         <v>793</v>
       </c>
@@ -5674,7 +5699,9 @@
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
-      <c r="S38" s="5"/>
+      <c r="S38" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="39" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
@@ -5702,18 +5729,18 @@
         <v>540</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J39" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K39" s="5" t="s">
         <v>541</v>
       </c>
       <c r="L39" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M39" s="5" t="s">
-        <v>608</v>
-      </c>
+      <c r="M39" s="5"/>
       <c r="N39" s="5" t="s">
         <v>794</v>
       </c>
@@ -5721,7 +5748,9 @@
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
-      <c r="S39" s="5"/>
+      <c r="S39" s="5" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="40" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
@@ -5749,18 +5778,18 @@
         <v>609</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J40" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K40" s="5" t="s">
         <v>541</v>
       </c>
       <c r="L40" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M40" s="5" t="s">
-        <v>610</v>
-      </c>
+      <c r="M40" s="5"/>
       <c r="N40" s="5" t="s">
         <v>795</v>
       </c>
@@ -5768,7 +5797,9 @@
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
-      <c r="S40" s="5"/>
+      <c r="S40" s="5" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="41" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
@@ -5796,9 +5827,11 @@
         <v>611</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J41" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K41" s="5" t="s">
         <v>541</v>
       </c>
@@ -5841,18 +5874,18 @@
         <v>612</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J42" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K42" s="5" t="s">
         <v>541</v>
       </c>
       <c r="L42" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M42" s="5" t="s">
-        <v>613</v>
-      </c>
+      <c r="M42" s="5"/>
       <c r="N42" s="5" t="s">
         <v>797</v>
       </c>
@@ -5860,7 +5893,9 @@
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
-      <c r="S42" s="5"/>
+      <c r="S42" s="5" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="43" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
@@ -5935,18 +5970,18 @@
         <v>617</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J44" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K44" s="5" t="s">
         <v>541</v>
       </c>
       <c r="L44" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M44" s="5" t="s">
-        <v>618</v>
-      </c>
+      <c r="M44" s="5"/>
       <c r="N44" s="5" t="s">
         <v>799</v>
       </c>
@@ -5954,7 +5989,9 @@
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
-      <c r="S44" s="5"/>
+      <c r="S44" s="5" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="45" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
@@ -5982,9 +6019,11 @@
         <v>619</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J45" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K45" s="5" t="s">
         <v>541</v>
       </c>
@@ -6074,18 +6113,18 @@
         <v>621</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J47" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K47" s="5" t="s">
         <v>541</v>
       </c>
       <c r="L47" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M47" s="5" t="s">
-        <v>622</v>
-      </c>
+      <c r="M47" s="5"/>
       <c r="N47" s="5" t="s">
         <v>802</v>
       </c>
@@ -6093,7 +6132,9 @@
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
-      <c r="S47" s="5"/>
+      <c r="S47" s="5" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="48" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
@@ -6215,9 +6256,11 @@
         <v>625</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J50" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K50" s="5" t="s">
         <v>541</v>
       </c>
@@ -6260,18 +6303,18 @@
         <v>626</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J51" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K51" s="5" t="s">
         <v>541</v>
       </c>
       <c r="L51" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M51" s="5" t="s">
-        <v>627</v>
-      </c>
+      <c r="M51" s="5"/>
       <c r="N51" s="5" t="s">
         <v>806</v>
       </c>
@@ -6279,7 +6322,9 @@
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
-      <c r="S51" s="5"/>
+      <c r="S51" s="5" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="52" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
@@ -6318,9 +6363,7 @@
       <c r="L52" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="M52" s="5" t="s">
-        <v>630</v>
-      </c>
+      <c r="M52" s="5"/>
       <c r="N52" s="5" t="s">
         <v>807</v>
       </c>
@@ -6328,7 +6371,9 @@
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
-      <c r="S52" s="5"/>
+      <c r="S52" s="5" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="53" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
@@ -6356,9 +6401,11 @@
         <v>631</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J53" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K53" s="5" t="s">
         <v>541</v>
       </c>
@@ -6401,18 +6448,18 @@
         <v>632</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J54" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K54" s="5" t="s">
         <v>541</v>
       </c>
       <c r="L54" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M54" s="5" t="s">
-        <v>633</v>
-      </c>
+      <c r="M54" s="5"/>
       <c r="N54" s="5" t="s">
         <v>809</v>
       </c>
@@ -6420,7 +6467,9 @@
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
-      <c r="S54" s="5"/>
+      <c r="S54" s="5" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="55" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
@@ -6459,9 +6508,7 @@
       <c r="L55" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M55" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M55" s="5"/>
       <c r="N55" s="5" t="s">
         <v>810</v>
       </c>
@@ -6469,7 +6516,9 @@
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
-      <c r="S55" s="5"/>
+      <c r="S55" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="56" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
@@ -6497,9 +6546,11 @@
         <v>635</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J56" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K56" s="5" t="s">
         <v>541</v>
       </c>
@@ -6589,9 +6640,11 @@
         <v>638</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J58" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K58" s="5" t="s">
         <v>541</v>
       </c>
@@ -6645,9 +6698,7 @@
       <c r="L59" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="M59" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M59" s="5"/>
       <c r="N59" s="5" t="s">
         <v>814</v>
       </c>
@@ -6655,7 +6706,9 @@
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
-      <c r="S59" s="5"/>
+      <c r="S59" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="60" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
@@ -6683,18 +6736,18 @@
         <v>640</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J60" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K60" s="5" t="s">
         <v>541</v>
       </c>
       <c r="L60" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M60" s="5" t="s">
-        <v>641</v>
-      </c>
+      <c r="M60" s="5"/>
       <c r="N60" s="5" t="s">
         <v>815</v>
       </c>
@@ -6702,7 +6755,9 @@
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
-      <c r="S60" s="5"/>
+      <c r="S60" s="5" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="61" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
@@ -6730,18 +6785,18 @@
         <v>642</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J61" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K61" s="5" t="s">
         <v>541</v>
       </c>
       <c r="L61" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M61" s="5" t="s">
-        <v>643</v>
-      </c>
+      <c r="M61" s="5"/>
       <c r="N61" s="5" t="s">
         <v>816</v>
       </c>
@@ -6749,7 +6804,9 @@
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
-      <c r="S61" s="5"/>
+      <c r="S61" s="5" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="62" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
@@ -6788,9 +6845,7 @@
       <c r="L62" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="M62" s="5" t="s">
-        <v>645</v>
-      </c>
+      <c r="M62" s="5"/>
       <c r="N62" s="5" t="s">
         <v>817</v>
       </c>
@@ -6798,7 +6853,9 @@
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
-      <c r="S62" s="5"/>
+      <c r="S62" s="5" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="63" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
@@ -6873,9 +6930,11 @@
         <v>647</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J64" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K64" s="5" t="s">
         <v>541</v>
       </c>
@@ -6929,9 +6988,7 @@
       <c r="L65" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="M65" s="5" t="s">
-        <v>651</v>
-      </c>
+      <c r="M65" s="5"/>
       <c r="N65" s="5" t="s">
         <v>820</v>
       </c>
@@ -6939,7 +6996,9 @@
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
-      <c r="S65" s="5"/>
+      <c r="S65" s="5" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="66" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
@@ -6978,9 +7037,7 @@
       <c r="L66" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="M66" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M66" s="5"/>
       <c r="N66" s="5" t="s">
         <v>821</v>
       </c>
@@ -6988,7 +7045,9 @@
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
-      <c r="S66" s="5"/>
+      <c r="S66" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="67" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
@@ -7016,18 +7075,18 @@
         <v>655</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J67" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K67" s="5" t="s">
         <v>541</v>
       </c>
       <c r="L67" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M67" s="5" t="s">
-        <v>656</v>
-      </c>
+      <c r="M67" s="5"/>
       <c r="N67" s="5" t="s">
         <v>822</v>
       </c>
@@ -7035,7 +7094,9 @@
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
-      <c r="S67" s="5"/>
+      <c r="S67" s="5" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="68" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
@@ -7074,9 +7135,7 @@
       <c r="L68" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M68" s="5" t="s">
-        <v>658</v>
-      </c>
+      <c r="M68" s="5"/>
       <c r="N68" s="5" t="s">
         <v>823</v>
       </c>
@@ -7084,7 +7143,9 @@
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
-      <c r="S68" s="5"/>
+      <c r="S68" s="5" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="69" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
@@ -7123,9 +7184,7 @@
       <c r="L69" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="M69" s="5" t="s">
-        <v>662</v>
-      </c>
+      <c r="M69" s="5"/>
       <c r="N69" s="5" t="s">
         <v>824</v>
       </c>
@@ -7133,7 +7192,9 @@
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
-      <c r="S69" s="5"/>
+      <c r="S69" s="5" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="70" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
@@ -7161,9 +7222,11 @@
         <v>663</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J70" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K70" s="5" t="s">
         <v>541</v>
       </c>
@@ -7206,9 +7269,11 @@
         <v>664</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J71" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K71" s="5" t="s">
         <v>541</v>
       </c>
@@ -7251,9 +7316,11 @@
         <v>665</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J72" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K72" s="5" t="s">
         <v>541</v>
       </c>
@@ -7296,9 +7363,11 @@
         <v>666</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J73" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K73" s="5" t="s">
         <v>541</v>
       </c>
@@ -7352,9 +7421,7 @@
       <c r="L74" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="M74" s="5" t="s">
-        <v>670</v>
-      </c>
+      <c r="M74" s="5"/>
       <c r="N74" s="5" t="s">
         <v>829</v>
       </c>
@@ -7362,7 +7429,9 @@
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
-      <c r="S74" s="5"/>
+      <c r="S74" s="5" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="75" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
@@ -7390,9 +7459,11 @@
         <v>671</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J75" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K75" s="5" t="s">
         <v>541</v>
       </c>
@@ -7435,9 +7506,11 @@
         <v>672</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J76" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K76" s="5" t="s">
         <v>541</v>
       </c>
@@ -7480,18 +7553,18 @@
         <v>673</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J77" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K77" s="5" t="s">
         <v>541</v>
       </c>
       <c r="L77" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M77" s="5" t="s">
-        <v>674</v>
-      </c>
+      <c r="M77" s="5"/>
       <c r="N77" s="5" t="s">
         <v>832</v>
       </c>
@@ -7499,7 +7572,9 @@
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
       <c r="R77" s="7"/>
-      <c r="S77" s="5"/>
+      <c r="S77" s="5" t="s">
+        <v>674</v>
+      </c>
     </row>
     <row r="78" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
@@ -7538,9 +7613,7 @@
       <c r="L78" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="M78" s="5" t="s">
-        <v>676</v>
-      </c>
+      <c r="M78" s="5"/>
       <c r="N78" s="5" t="s">
         <v>833</v>
       </c>
@@ -7548,7 +7621,9 @@
       <c r="P78" s="7"/>
       <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
-      <c r="S78" s="5"/>
+      <c r="S78" s="5" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="79" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
@@ -7576,9 +7651,11 @@
         <v>677</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J79" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K79" s="5" t="s">
         <v>541</v>
       </c>
@@ -7632,9 +7709,7 @@
       <c r="L80" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="M80" s="5" t="s">
-        <v>679</v>
-      </c>
+      <c r="M80" s="5"/>
       <c r="N80" s="5" t="s">
         <v>835</v>
       </c>
@@ -7642,7 +7717,9 @@
       <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
-      <c r="S80" s="5"/>
+      <c r="S80" s="5" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="81" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
@@ -7681,9 +7758,7 @@
       <c r="L81" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M81" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M81" s="5"/>
       <c r="N81" s="5" t="s">
         <v>836</v>
       </c>
@@ -7691,7 +7766,9 @@
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
-      <c r="S81" s="5"/>
+      <c r="S81" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="82" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
@@ -7730,9 +7807,7 @@
       <c r="L82" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="M82" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M82" s="5"/>
       <c r="N82" s="5" t="s">
         <v>837</v>
       </c>
@@ -7740,7 +7815,9 @@
       <c r="P82" s="7"/>
       <c r="Q82" s="7"/>
       <c r="R82" s="7"/>
-      <c r="S82" s="5"/>
+      <c r="S82" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="83" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
@@ -7826,9 +7903,7 @@
       <c r="L84" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="M84" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M84" s="5"/>
       <c r="N84" s="5" t="s">
         <v>839</v>
       </c>
@@ -7836,7 +7911,9 @@
       <c r="P84" s="7"/>
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
-      <c r="S84" s="5"/>
+      <c r="S84" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="85" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
@@ -7911,9 +7988,11 @@
         <v>685</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J86" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K86" s="5" t="s">
         <v>541</v>
       </c>
@@ -7956,9 +8035,11 @@
         <v>686</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J87" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K87" s="5" t="s">
         <v>541</v>
       </c>
@@ -8001,9 +8082,11 @@
         <v>687</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J88" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K88" s="5" t="s">
         <v>541</v>
       </c>
@@ -8057,9 +8140,7 @@
       <c r="L89" s="5" t="s">
         <v>690</v>
       </c>
-      <c r="M89" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M89" s="5"/>
       <c r="N89" s="5" t="s">
         <v>844</v>
       </c>
@@ -8067,7 +8148,9 @@
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
-      <c r="S89" s="5"/>
+      <c r="S89" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="90" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
@@ -8106,9 +8189,7 @@
       <c r="L90" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="M90" s="5" t="s">
-        <v>692</v>
-      </c>
+      <c r="M90" s="5"/>
       <c r="N90" s="5" t="s">
         <v>845</v>
       </c>
@@ -8116,7 +8197,9 @@
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
-      <c r="S90" s="5"/>
+      <c r="S90" s="5" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="91" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
@@ -8155,9 +8238,7 @@
       <c r="L91" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="M91" s="5" t="s">
-        <v>694</v>
-      </c>
+      <c r="M91" s="5"/>
       <c r="N91" s="5" t="s">
         <v>846</v>
       </c>
@@ -8165,7 +8246,9 @@
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
       <c r="R91" s="7"/>
-      <c r="S91" s="5"/>
+      <c r="S91" s="5" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="92" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
@@ -8193,18 +8276,18 @@
         <v>695</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J92" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K92" s="5" t="s">
         <v>541</v>
       </c>
       <c r="L92" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M92" s="5" t="s">
-        <v>696</v>
-      </c>
+      <c r="M92" s="5"/>
       <c r="N92" s="5" t="s">
         <v>847</v>
       </c>
@@ -8212,7 +8295,9 @@
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
-      <c r="S92" s="5"/>
+      <c r="S92" s="5" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="93" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
@@ -8240,18 +8325,18 @@
         <v>697</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J93" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K93" s="5" t="s">
         <v>541</v>
       </c>
       <c r="L93" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M93" s="5" t="s">
-        <v>698</v>
-      </c>
+      <c r="M93" s="5"/>
       <c r="N93" s="5" t="s">
         <v>848</v>
       </c>
@@ -8259,7 +8344,9 @@
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
-      <c r="S93" s="5"/>
+      <c r="S93" s="5" t="s">
+        <v>698</v>
+      </c>
     </row>
     <row r="94" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
@@ -8287,9 +8374,11 @@
         <v>699</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J94" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K94" s="5" t="s">
         <v>541</v>
       </c>
@@ -8343,9 +8432,7 @@
       <c r="L95" s="5" t="s">
         <v>702</v>
       </c>
-      <c r="M95" s="5" t="s">
-        <v>703</v>
-      </c>
+      <c r="M95" s="5"/>
       <c r="N95" s="5" t="s">
         <v>850</v>
       </c>
@@ -8353,7 +8440,9 @@
       <c r="P95" s="7"/>
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
-      <c r="S95" s="5"/>
+      <c r="S95" s="5" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="96" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
@@ -8381,18 +8470,18 @@
         <v>704</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J96" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K96" s="5" t="s">
         <v>541</v>
       </c>
       <c r="L96" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M96" s="5" t="s">
-        <v>705</v>
-      </c>
+      <c r="M96" s="5"/>
       <c r="N96" s="5" t="s">
         <v>851</v>
       </c>
@@ -8400,7 +8489,9 @@
       <c r="P96" s="7"/>
       <c r="Q96" s="7"/>
       <c r="R96" s="7"/>
-      <c r="S96" s="5"/>
+      <c r="S96" s="5" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="97" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
@@ -8428,18 +8519,18 @@
         <v>706</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J97" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K97" s="5" t="s">
         <v>541</v>
       </c>
       <c r="L97" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M97" s="5" t="s">
-        <v>707</v>
-      </c>
+      <c r="M97" s="5"/>
       <c r="N97" s="5" t="s">
         <v>852</v>
       </c>
@@ -8447,7 +8538,9 @@
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
       <c r="R97" s="7"/>
-      <c r="S97" s="5"/>
+      <c r="S97" s="5" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="98" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
@@ -8486,9 +8579,7 @@
       <c r="L98" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="M98" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M98" s="5"/>
       <c r="N98" s="5" t="s">
         <v>853</v>
       </c>
@@ -8496,7 +8587,9 @@
       <c r="P98" s="7"/>
       <c r="Q98" s="7"/>
       <c r="R98" s="7"/>
-      <c r="S98" s="5"/>
+      <c r="S98" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="99" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
@@ -8582,9 +8675,7 @@
       <c r="L100" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="M100" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M100" s="5"/>
       <c r="N100" s="5" t="s">
         <v>855</v>
       </c>
@@ -8592,7 +8683,9 @@
       <c r="P100" s="7"/>
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
-      <c r="S100" s="5"/>
+      <c r="S100" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="101" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
@@ -8620,9 +8713,11 @@
         <v>711</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J101" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K101" s="5" t="s">
         <v>541</v>
       </c>
@@ -8712,18 +8807,18 @@
         <v>713</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J103" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K103" s="5" t="s">
         <v>541</v>
       </c>
       <c r="L103" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M103" s="5" t="s">
-        <v>714</v>
-      </c>
+      <c r="M103" s="5"/>
       <c r="N103" s="5" t="s">
         <v>858</v>
       </c>
@@ -8731,7 +8826,9 @@
       <c r="P103" s="7"/>
       <c r="Q103" s="7"/>
       <c r="R103" s="7"/>
-      <c r="S103" s="5"/>
+      <c r="S103" s="5" t="s">
+        <v>714</v>
+      </c>
     </row>
     <row r="104" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
@@ -8759,9 +8856,11 @@
         <v>715</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J104" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K104" s="5" t="s">
         <v>541</v>
       </c>
@@ -8851,9 +8950,11 @@
         <v>717</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J106" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K106" s="5" t="s">
         <v>541</v>
       </c>
@@ -8896,18 +8997,18 @@
         <v>678</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J107" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K107" s="5" t="s">
         <v>541</v>
       </c>
       <c r="L107" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M107" s="5" t="s">
-        <v>718</v>
-      </c>
+      <c r="M107" s="5"/>
       <c r="N107" s="5" t="s">
         <v>862</v>
       </c>
@@ -8915,7 +9016,9 @@
       <c r="P107" s="7"/>
       <c r="Q107" s="7"/>
       <c r="R107" s="7"/>
-      <c r="S107" s="5"/>
+      <c r="S107" s="5" t="s">
+        <v>718</v>
+      </c>
     </row>
     <row r="108" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
@@ -8943,9 +9046,11 @@
         <v>719</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J108" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K108" s="5" t="s">
         <v>541</v>
       </c>
@@ -8988,9 +9093,11 @@
         <v>720</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J109" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K109" s="5" t="s">
         <v>541</v>
       </c>
@@ -9052,7 +9159,7 @@
       <c r="P110" s="7"/>
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
-      <c r="S110" s="7"/>
+      <c r="S110" s="5"/>
     </row>
     <row r="111" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
@@ -9091,9 +9198,7 @@
       <c r="L111" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M111" s="5" t="s">
-        <v>707</v>
-      </c>
+      <c r="M111" s="5"/>
       <c r="N111" s="5" t="s">
         <v>866</v>
       </c>
@@ -9101,7 +9206,9 @@
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
-      <c r="S111" s="7"/>
+      <c r="S111" s="5" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="112" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
@@ -9140,9 +9247,7 @@
       <c r="L112" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M112" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M112" s="5"/>
       <c r="N112" s="5" t="s">
         <v>867</v>
       </c>
@@ -9150,7 +9255,9 @@
       <c r="P112" s="7"/>
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
-      <c r="S112" s="7"/>
+      <c r="S112" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="113" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
@@ -9189,9 +9296,7 @@
       <c r="L113" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="M113" s="5" t="s">
-        <v>725</v>
-      </c>
+      <c r="M113" s="5"/>
       <c r="N113" s="5" t="s">
         <v>868</v>
       </c>
@@ -9199,7 +9304,9 @@
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
-      <c r="S113" s="7"/>
+      <c r="S113" s="5" t="s">
+        <v>725</v>
+      </c>
     </row>
     <row r="114" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
@@ -9238,9 +9345,7 @@
       <c r="L114" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="M114" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M114" s="5"/>
       <c r="N114" s="5" t="s">
         <v>869</v>
       </c>
@@ -9248,7 +9353,9 @@
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
-      <c r="S114" s="7"/>
+      <c r="S114" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="115" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
@@ -9287,9 +9394,7 @@
       <c r="L115" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="M115" s="5" t="s">
-        <v>728</v>
-      </c>
+      <c r="M115" s="5"/>
       <c r="N115" s="5" t="s">
         <v>870</v>
       </c>
@@ -9297,7 +9402,9 @@
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
-      <c r="S115" s="7"/>
+      <c r="S115" s="5" t="s">
+        <v>728</v>
+      </c>
     </row>
     <row r="116" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
@@ -9336,9 +9443,7 @@
       <c r="L116" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="M116" s="5" t="s">
-        <v>732</v>
-      </c>
+      <c r="M116" s="5"/>
       <c r="N116" s="5" t="s">
         <v>871</v>
       </c>
@@ -9346,7 +9451,9 @@
       <c r="P116" s="7"/>
       <c r="Q116" s="7"/>
       <c r="R116" s="7"/>
-      <c r="S116" s="7"/>
+      <c r="S116" s="5" t="s">
+        <v>732</v>
+      </c>
     </row>
     <row r="117" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
@@ -9393,7 +9500,7 @@
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
-      <c r="S117" s="7"/>
+      <c r="S117" s="5"/>
     </row>
     <row r="118" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
@@ -9432,9 +9539,7 @@
       <c r="L118" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="M118" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M118" s="5"/>
       <c r="N118" s="5" t="s">
         <v>873</v>
       </c>
@@ -9442,7 +9547,9 @@
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
-      <c r="S118" s="7"/>
+      <c r="S118" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="119" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
@@ -9481,9 +9588,7 @@
       <c r="L119" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="M119" s="5" t="s">
-        <v>736</v>
-      </c>
+      <c r="M119" s="5"/>
       <c r="N119" s="5" t="s">
         <v>874</v>
       </c>
@@ -9491,7 +9596,9 @@
       <c r="P119" s="7"/>
       <c r="Q119" s="7"/>
       <c r="R119" s="7"/>
-      <c r="S119" s="5"/>
+      <c r="S119" s="5" t="s">
+        <v>736</v>
+      </c>
     </row>
     <row r="120" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
@@ -9519,18 +9626,18 @@
         <v>737</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J120" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K120" s="5" t="s">
         <v>541</v>
       </c>
       <c r="L120" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M120" s="5" t="s">
-        <v>738</v>
-      </c>
+      <c r="M120" s="5"/>
       <c r="N120" s="5" t="s">
         <v>875</v>
       </c>
@@ -9538,7 +9645,9 @@
       <c r="P120" s="7"/>
       <c r="Q120" s="7"/>
       <c r="R120" s="7"/>
-      <c r="S120" s="5"/>
+      <c r="S120" s="5" t="s">
+        <v>738</v>
+      </c>
     </row>
     <row r="121" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
@@ -9566,18 +9675,18 @@
         <v>739</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J121" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J121" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K121" s="5" t="s">
         <v>541</v>
       </c>
       <c r="L121" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M121" s="5" t="s">
-        <v>707</v>
-      </c>
+      <c r="M121" s="5"/>
       <c r="N121" s="5" t="s">
         <v>876</v>
       </c>
@@ -9585,7 +9694,9 @@
       <c r="P121" s="7"/>
       <c r="Q121" s="7"/>
       <c r="R121" s="7"/>
-      <c r="S121" s="5"/>
+      <c r="S121" s="5" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="122" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
@@ -9613,9 +9724,11 @@
         <v>740</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J122" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J122" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K122" s="5" t="s">
         <v>541</v>
       </c>
@@ -9669,9 +9782,7 @@
       <c r="L123" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="M123" s="5" t="s">
-        <v>732</v>
-      </c>
+      <c r="M123" s="5"/>
       <c r="N123" s="5" t="s">
         <v>878</v>
       </c>
@@ -9679,7 +9790,9 @@
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
-      <c r="S123" s="5"/>
+      <c r="S123" s="5" t="s">
+        <v>732</v>
+      </c>
     </row>
     <row r="124" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
@@ -9709,20 +9822,22 @@
       <c r="I124" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="J124" s="5"/>
+      <c r="J124" s="5" t="s">
+        <v>552</v>
+      </c>
       <c r="K124" s="5" t="s">
         <v>552</v>
       </c>
       <c r="L124" s="5"/>
-      <c r="M124" s="5" t="s">
-        <v>743</v>
-      </c>
+      <c r="M124" s="5"/>
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
       <c r="P124" s="7"/>
       <c r="Q124" s="7"/>
       <c r="R124" s="7"/>
-      <c r="S124" s="5"/>
+      <c r="S124" s="5" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="125" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
@@ -9750,24 +9865,26 @@
         <v>744</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J125" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K125" s="5" t="s">
         <v>541</v>
       </c>
       <c r="L125" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M125" s="5" t="s">
-        <v>745</v>
-      </c>
+      <c r="M125" s="5"/>
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
-      <c r="S125" s="5"/>
+      <c r="S125" s="5" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="126" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
@@ -9806,9 +9923,7 @@
       <c r="L126" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="M126" s="5" t="s">
-        <v>747</v>
-      </c>
+      <c r="M126" s="5"/>
       <c r="N126" s="5" t="s">
         <v>879</v>
       </c>
@@ -9816,7 +9931,9 @@
       <c r="P126" s="7"/>
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
-      <c r="S126" s="5"/>
+      <c r="S126" s="5" t="s">
+        <v>747</v>
+      </c>
     </row>
     <row r="127" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
@@ -9855,9 +9972,7 @@
       <c r="L127" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="M127" s="5" t="s">
-        <v>749</v>
-      </c>
+      <c r="M127" s="5"/>
       <c r="N127" s="5" t="s">
         <v>880</v>
       </c>
@@ -9865,7 +9980,9 @@
       <c r="P127" s="7"/>
       <c r="Q127" s="7"/>
       <c r="R127" s="7"/>
-      <c r="S127" s="5"/>
+      <c r="S127" s="5" t="s">
+        <v>749</v>
+      </c>
     </row>
     <row r="128" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
@@ -9904,9 +10021,7 @@
       <c r="L128" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="M128" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M128" s="5"/>
       <c r="N128" s="5" t="s">
         <v>881</v>
       </c>
@@ -9914,7 +10029,9 @@
       <c r="P128" s="7"/>
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
-      <c r="S128" s="5"/>
+      <c r="S128" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="129" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
@@ -10047,9 +10164,7 @@
       <c r="L131" s="5" t="s">
         <v>755</v>
       </c>
-      <c r="M131" s="5" t="s">
-        <v>756</v>
-      </c>
+      <c r="M131" s="5"/>
       <c r="N131" s="5" t="s">
         <v>884</v>
       </c>
@@ -10057,7 +10172,9 @@
       <c r="P131" s="7"/>
       <c r="Q131" s="7"/>
       <c r="R131" s="7"/>
-      <c r="S131" s="5"/>
+      <c r="S131" s="5" t="s">
+        <v>756</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:S131"/>
